--- a/project_other/ArchiveBDD.xlsx
+++ b/project_other/ArchiveBDD.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>数据库信息表</t>
   </si>
   <si>
-    <t>信息表名称</t>
+    <t>信息表</t>
   </si>
   <si>
     <t>Nom attribut</t>
@@ -34,10 +34,22 @@
     <t>约束</t>
   </si>
   <si>
-    <t>Utilisateur （Entité）User</t>
-  </si>
-  <si>
-    <t>U_Mail</t>
+    <t>Entity : Users</t>
+  </si>
+  <si>
+    <t>u_ID</t>
+  </si>
+  <si>
+    <t>使用者的id（由系统随机生成）</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary key         </t>
+  </si>
+  <si>
+    <t>u_MailAddress</t>
   </si>
   <si>
     <t>使用者的邮箱</t>
@@ -49,262 +61,241 @@
     <t>唯一</t>
   </si>
   <si>
-    <t>U_Id</t>
-  </si>
-  <si>
-    <t>使用者的id（由系统随机生成）</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary key         </t>
-  </si>
-  <si>
-    <t>U_Mdp</t>
+    <t>u_FirstName</t>
+  </si>
+  <si>
+    <t>使用者的名</t>
+  </si>
+  <si>
+    <t>u_LastName</t>
+  </si>
+  <si>
+    <t>使用者的姓</t>
+  </si>
+  <si>
+    <t>u_UserName</t>
+  </si>
+  <si>
+    <t>使用者的用户名</t>
+  </si>
+  <si>
+    <t>名首字母大写+姓全大写      例子：Yanjie SHI</t>
+  </si>
+  <si>
+    <t>u_PassWord</t>
   </si>
   <si>
     <t>使用者的密码</t>
   </si>
   <si>
-    <t>U_Nom</t>
-  </si>
-  <si>
-    <t>使用者的姓</t>
-  </si>
-  <si>
-    <t>U_Prénom</t>
-  </si>
-  <si>
-    <t>使用者的名</t>
-  </si>
-  <si>
-    <t>U_Pseudo</t>
-  </si>
-  <si>
-    <t>使用者的用户名</t>
-  </si>
-  <si>
-    <t>名首字母大写+姓全大写      例子：Yanjie SHI</t>
-  </si>
-  <si>
-    <t>U_Pays</t>
+    <t>u_Sex</t>
+  </si>
+  <si>
+    <t>用户的性别</t>
+  </si>
+  <si>
+    <t>0 = Male                                                                       1 = Female</t>
+  </si>
+  <si>
+    <t>u_Country</t>
   </si>
   <si>
     <t> 使用者所在城市</t>
   </si>
   <si>
-    <t>U_CP</t>
+    <t>u_City</t>
+  </si>
+  <si>
+    <t>使用者所在城市</t>
+  </si>
+  <si>
+    <t>u_Address</t>
+  </si>
+  <si>
+    <t>使用者的住宅地址</t>
+  </si>
+  <si>
+    <t>可以为空</t>
+  </si>
+  <si>
+    <t>u_ZipCode</t>
   </si>
   <si>
     <t>使用者的家庭邮编</t>
   </si>
   <si>
-    <t>U_Ville</t>
-  </si>
-  <si>
-    <t>使用者所在城市</t>
-  </si>
-  <si>
-    <t>U_Adresse</t>
-  </si>
-  <si>
-    <t>使用者的住宅地址</t>
-  </si>
-  <si>
-    <t>Archive  （Entité）</t>
-  </si>
-  <si>
-    <t>A_CodeRéférence</t>
-  </si>
-  <si>
-    <t>文献箱的ID号（code de carton）+ folio（具体文件的编号</t>
+    <t>Entity : Archive</t>
+  </si>
+  <si>
+    <t>a_ID</t>
+  </si>
+  <si>
+    <t>文献箱的ID号（code de carton = cote）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">primary key                                                        </t>
+  </si>
+  <si>
+    <t>a_Folio</t>
+  </si>
+  <si>
+    <t>文件的页码（可以精确到某一页）</t>
+  </si>
+  <si>
+    <t>a_Title</t>
+  </si>
+  <si>
+    <t>文献的标题</t>
+  </si>
+  <si>
+    <t>a_Type</t>
+  </si>
+  <si>
+    <t>文献的类型</t>
+  </si>
+  <si>
+    <t>0 = Document physique                                       1 = Document numérisé                                       2 = Audio-visuelle</t>
+  </si>
+  <si>
+    <t>a_Language</t>
+  </si>
+  <si>
+    <t>文献的语言</t>
+  </si>
+  <si>
+    <t>a_Author</t>
+  </si>
+  <si>
+    <t>文献的作者</t>
+  </si>
+  <si>
+    <t>a_SaveLocation</t>
+  </si>
+  <si>
+    <t>文献保存的地点</t>
+  </si>
+  <si>
+    <t>地址+邮编+城市</t>
+  </si>
+  <si>
+    <t>a_Description</t>
+  </si>
+  <si>
+    <t>文献的简介</t>
+  </si>
+  <si>
+    <t>Relation : Reservation</t>
+  </si>
+  <si>
+    <t>r_ID</t>
+  </si>
+  <si>
+    <t>预约的ID</t>
+  </si>
+  <si>
+    <t>Primary key （随机生成的一个13位的数字，不能重复）</t>
+  </si>
+  <si>
+    <t>r_EndDate</t>
+  </si>
+  <si>
+    <t>本次预约的截止时间段（即在deadline这个日期前会去预约的文献馆）</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>JJ/MM/AA （日/月/年）</t>
+  </si>
+  <si>
+    <t>r_Status</t>
+  </si>
+  <si>
+    <t>本次预约是否已经被执行即R_Donneur是否已经去了博物馆</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>0 = R_还没去                                                                  1 = 已经去了博物馆</t>
+  </si>
+  <si>
+    <t>r_MusemID</t>
+  </si>
+  <si>
+    <t>本次预约的文献馆的ID = M_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreign key </t>
+  </si>
+  <si>
+    <t>r_ProviderID</t>
+  </si>
+  <si>
+    <t>创建本次预约的人，同时也是要自己前往文档馆的人（必须是已在网站注册的用户）</t>
+  </si>
+  <si>
+    <t>foreign key</t>
+  </si>
+  <si>
+    <t>r_ProviderHasSent</t>
+  </si>
+  <si>
+    <t>本次预约中的所有被需求的文献是否已经被提供者发送给需求者</t>
+  </si>
+  <si>
+    <t>0 = 提供者还未发送                                                                  1 = 提供者已经发送</t>
+  </si>
+  <si>
+    <t>r_DemanderHasReceived</t>
+  </si>
+  <si>
+    <t>本次预约中的所有被需求的文献是否已经被需求者成功接受</t>
+  </si>
+  <si>
+    <t>0 = 需求者还未收到                                                                  1 = 需求者已经收到</t>
+  </si>
+  <si>
+    <t>Entity : Museum</t>
+  </si>
+  <si>
+    <t>m_ID</t>
+  </si>
+  <si>
+    <t>文献馆ID</t>
   </si>
   <si>
     <t>primary key</t>
   </si>
   <si>
-    <t>A_Titre</t>
-  </si>
-  <si>
-    <t>文献的标题</t>
-  </si>
-  <si>
-    <t>A_Type</t>
-  </si>
-  <si>
-    <t>文献的类型</t>
-  </si>
-  <si>
-    <t>Document physique / Document numérisé / Audio-visuelle  ( 我把之前的Etat去掉了融合到这里，现在是三选一</t>
-  </si>
-  <si>
-    <t>A_Producteur</t>
-  </si>
-  <si>
-    <t>文献的作者</t>
-  </si>
-  <si>
-    <t>A_Localisation</t>
-  </si>
-  <si>
-    <t>文献实体储存的地点（即文献馆的地址 : 地址+邮编+城市）</t>
-  </si>
-  <si>
-    <t>foreign key（来自musée）</t>
-  </si>
-  <si>
-    <t>A_description</t>
-  </si>
-  <si>
-    <t>文献的简介</t>
-  </si>
-  <si>
-    <t>Réservation（Entité）rdv</t>
-  </si>
-  <si>
-    <t>R_Id</t>
-  </si>
-  <si>
-    <t>预约的号码</t>
-  </si>
-  <si>
-    <t>Primary key （随机生成的一个13位的数字，不能重复）</t>
-  </si>
-  <si>
-    <t>R_Date</t>
-  </si>
-  <si>
-    <t>本次预约的时间段（即在这个时间段内会去预约的文献馆）</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>JJ/MM/AA （日/月/年）- JJ/MM/AA （日/月/年）</t>
-  </si>
-  <si>
-    <t>R_État</t>
-  </si>
-  <si>
-    <t>本次预约是否已经被执行即R_Donneur是否已经去了博物馆</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
-  </si>
-  <si>
-    <t>R_Lieu</t>
-  </si>
-  <si>
-    <t>本次预约的文献馆的地址 = A_Adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">（来自musée）的foreign key </t>
-  </si>
-  <si>
-    <t>R_Donneur</t>
-  </si>
-  <si>
-    <t>创建本次预约的人，同时也是要自己前往文档馆的人（必须是已在网站注册的用户）= U_Mail -&gt; U_Pseudo (通过唯一的Mail，确定并显示用户名）</t>
-  </si>
-  <si>
-    <t>foreign key（utilisateur）</t>
-  </si>
-  <si>
-    <t>R_Demandeur</t>
-  </si>
-  <si>
-    <t>想加入本次预约的人，同时也是不能去此文档馆，需要R_Donneur拍照发回给他的人（必须是已在网站注册的用户）= U_Mail -&gt; U_Pseudo(通过唯一的Mail，确定并显示用户名）</t>
-  </si>
-  <si>
-    <t>R_nbDocumentLimit</t>
-  </si>
-  <si>
-    <t>可预约的文字文献总数</t>
-  </si>
-  <si>
-    <t>R_nbVideoLimit</t>
-  </si>
-  <si>
-    <t>可预约的视频文献总数</t>
-  </si>
-  <si>
-    <t>R_nbDemandDocument</t>
-  </si>
-  <si>
-    <t>本次预约已预定的文字档案数量</t>
-  </si>
-  <si>
-    <t>R_nbDemandVideo</t>
-  </si>
-  <si>
-    <t>本次预约已预定的影视档案数量</t>
-  </si>
-  <si>
-    <t>R_ÉtatDocument</t>
-  </si>
-  <si>
-    <t>文字文献预约的状态（是否满员）</t>
-  </si>
-  <si>
-    <t>满员即不能再预定</t>
-  </si>
-  <si>
-    <t>R_ÉtatVideo</t>
-  </si>
-  <si>
-    <t>视频文献预约的状态（是否满员）</t>
-  </si>
-  <si>
-    <t>R_IdArchive</t>
-  </si>
-  <si>
-    <t>此预约所包含的文献（包括书面文献和影视文献）的ID = A_CodeRéférence</t>
-  </si>
-  <si>
-    <t>foreign key（来自listDemandeeur）</t>
-  </si>
-  <si>
-    <t>Musée    （Entité）</t>
-  </si>
-  <si>
-    <t>M_Nom</t>
+    <t>m_Name</t>
   </si>
   <si>
     <t>文献馆的名字</t>
   </si>
   <si>
-    <t>M_ID</t>
-  </si>
-  <si>
-    <t>文献馆ID</t>
-  </si>
-  <si>
-    <t>M_Ville</t>
-  </si>
-  <si>
-    <t>文献馆所在的城市</t>
-  </si>
-  <si>
-    <t>Ivry-sur-seine</t>
-  </si>
-  <si>
-    <t>M_CP</t>
+    <t>m_City</t>
+  </si>
+  <si>
+    <t>文献馆所在城市</t>
+  </si>
+  <si>
+    <t>m_Address</t>
+  </si>
+  <si>
+    <t>文献馆所在的地址</t>
+  </si>
+  <si>
+    <t>132 bd de stalingrad</t>
+  </si>
+  <si>
+    <t>m_ZipCode</t>
   </si>
   <si>
     <t>文献馆所在城市的邮编</t>
   </si>
   <si>
-    <t>M_Adresse</t>
-  </si>
-  <si>
-    <t>文献馆所在的地址</t>
-  </si>
-  <si>
-    <t>132 bd de stalingrad</t>
-  </si>
-  <si>
-    <t>M_Tel</t>
+    <t>m_Tel</t>
   </si>
   <si>
     <t>文献馆的联系电话</t>
@@ -313,76 +304,130 @@
     <t>+33  X  XX  XX  XX  XX</t>
   </si>
   <si>
-    <t>M_Mail</t>
+    <t>m_Mail</t>
   </si>
   <si>
     <t>文献馆的联系邮箱</t>
   </si>
   <si>
-    <t>M_nbDocumentLimit</t>
+    <t>m_NbDocumentLimit</t>
   </si>
   <si>
     <t>文献馆每个人一次能查看的文字档案数量</t>
   </si>
   <si>
-    <t>M_nbVideoLimit</t>
+    <t>m_NbVideoLimit</t>
   </si>
   <si>
     <t>文献馆每个人一次能查看的视频档案数量</t>
   </si>
   <si>
-    <t>ListeDemandeur</t>
-  </si>
-  <si>
-    <t>LD_RevId</t>
-  </si>
-  <si>
-    <t>预约者所在的本次预约的号码 = R_Id</t>
-  </si>
-  <si>
-    <t>LD_UserId</t>
-  </si>
-  <si>
-    <t>本次预约里存在的预约者的Id</t>
-  </si>
-  <si>
-    <t>LD_Pseudo</t>
-  </si>
-  <si>
-    <t>预约者的用户名 = U_Pseudo</t>
-  </si>
-  <si>
-    <t>LD_Mail</t>
-  </si>
-  <si>
-    <t>预约者的联系邮箱 = U_mail</t>
-  </si>
-  <si>
-    <t>ListeArchive</t>
-  </si>
-  <si>
-    <t>LA_RevId</t>
-  </si>
-  <si>
-    <t>文献所在的预约号</t>
-  </si>
-  <si>
-    <t>LA_ArId</t>
-  </si>
-  <si>
-    <t>本次预约中的所有被需求的文献号</t>
-  </si>
-  <si>
-    <t>LA_EtatDonneur</t>
-  </si>
-  <si>
-    <t>本次预约中的所有被需求的文献是否已经被提供者发送给需求者</t>
-  </si>
-  <si>
-    <t>LA_EtatDemandeur</t>
-  </si>
-  <si>
-    <t>本次预约中的所有被需求的文献是否已经被需求者成功接受</t>
+    <t>Relation : Res_Dem_Arch</t>
+  </si>
+  <si>
+    <t>rad_ID</t>
+  </si>
+  <si>
+    <t>Primary key</t>
+  </si>
+  <si>
+    <t>rad_ArchiveID</t>
+  </si>
+  <si>
+    <t>本次预约中的所有被需求的文献号 属于 A_ID</t>
+  </si>
+  <si>
+    <t>rad_ReservationID</t>
+  </si>
+  <si>
+    <t>预约者所在的本次预约的号码 属于 R_ID</t>
+  </si>
+  <si>
+    <t>rad_UserID</t>
+  </si>
+  <si>
+    <t>本次预约里存在的预约者的Id 属于U_ID</t>
+  </si>
+  <si>
+    <t>Entity : Notification</t>
+  </si>
+  <si>
+    <t>n_ID</t>
+  </si>
+  <si>
+    <t>通知ID</t>
+  </si>
+  <si>
+    <t>n_Category</t>
+  </si>
+  <si>
+    <t>通知的类型</t>
+  </si>
+  <si>
+    <t>0 = Admin                                                                   1= Reservation                                                             2 = Demande</t>
+  </si>
+  <si>
+    <t>n_Title</t>
+  </si>
+  <si>
+    <t>通知的标题</t>
+  </si>
+  <si>
+    <t>n_Content</t>
+  </si>
+  <si>
+    <t>通知的内容</t>
+  </si>
+  <si>
+    <t>n_ReceiverID</t>
+  </si>
+  <si>
+    <t>收到通知的人</t>
+  </si>
+  <si>
+    <t>n_Status</t>
+  </si>
+  <si>
+    <t>此消息的状态</t>
+  </si>
+  <si>
+    <t>0 = 未读                                                                      1 = 已读</t>
+  </si>
+  <si>
+    <t>Entity ：Demand</t>
+  </si>
+  <si>
+    <t>d_ID</t>
+  </si>
+  <si>
+    <t>需求ID</t>
+  </si>
+  <si>
+    <t>d_DemanderID</t>
+  </si>
+  <si>
+    <t>发布此需求的人的ID</t>
+  </si>
+  <si>
+    <t>d_ArchiveID</t>
+  </si>
+  <si>
+    <t>需要的文献的ID</t>
+  </si>
+  <si>
+    <t>d_Date</t>
+  </si>
+  <si>
+    <t>发布此需求的日期</t>
+  </si>
+  <si>
+    <t>d_Status</t>
+  </si>
+  <si>
+    <t>此需求的状态</t>
+  </si>
+  <si>
+    <t>0 = 未完成                                                                       1 = 已完成（结束）</t>
   </si>
 </sst>
 </file>
@@ -392,7 +437,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -416,50 +461,37 @@
     </font>
     <font>
       <b val="1"/>
-      <u val="single"/>
       <sz val="10"/>
-      <color indexed="15"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="15"/>
+      <color indexed="16"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="17"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="17"/>
+      <color indexed="16"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="17"/>
+      <color indexed="19"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="20"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="21"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="23"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="24"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -490,24 +522,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="18"/>
+        <fgColor indexed="21"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="19"/>
+        <fgColor indexed="22"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -569,13 +601,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -587,7 +619,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -599,16 +631,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,7 +655,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,9 +669,7 @@
       <top style="thin">
         <color indexed="11"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -650,7 +680,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -665,7 +695,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -680,7 +710,7 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -694,12 +724,8 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -707,34 +733,62 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -764,7 +818,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -777,7 +831,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -792,10 +846,10 @@
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -804,7 +858,7 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -816,7 +870,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -831,10 +885,47 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -845,8 +936,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -854,9 +969,7 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -864,26 +977,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -892,34 +1007,19 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -929,29 +1029,51 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -963,10 +1085,10 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="22"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -975,41 +1097,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="18"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color indexed="8"/>
-      </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -1022,7 +1131,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1041,100 +1150,355 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1143,172 +1507,22 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1333,17 +1547,15 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="fffd3c4d"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="fffd3c4e"/>
-      <rgbColor rgb="ff61d836"/>
-      <rgbColor rgb="ff60d836"/>
       <rgbColor rgb="ff00a1fe"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="fffc3c4e"/>
       <rgbColor rgb="ff3fb9ff"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffed220b"/>
-      <rgbColor rgb="fffc3c4e"/>
+      <rgbColor rgb="fff8da56"/>
+      <rgbColor rgb="fff8da57"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2405,7 +2617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2433,865 +2645,934 @@
       <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="5">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="F2" t="s" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="23" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="A3" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="B3" t="s" s="7">
+      <c r="B3" t="s" s="9">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" t="s" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="22.25" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" t="s" s="14">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="E4" s="16">
         <v>64</v>
       </c>
-      <c r="F3" t="s" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" t="s" s="12">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s" s="13">
+      <c r="F4" t="s" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="22.25" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s" s="19">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E5" s="21">
+        <v>64</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" ht="22.25" customHeight="1">
+      <c r="A6" s="23"/>
+      <c r="B6" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s" s="20">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E6" s="21">
+        <v>64</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" ht="22.25" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" t="s" s="19">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E7" s="21">
+        <v>128</v>
+      </c>
+      <c r="F7" t="s" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="22.25" customHeight="1">
+      <c r="A8" s="26"/>
+      <c r="B8" t="s" s="19">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="20">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E8" s="21">
+        <v>32</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" ht="26.7" customHeight="1">
+      <c r="A9" s="26"/>
+      <c r="B9" t="s" s="27">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="28">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s" s="28">
+        <v>10</v>
+      </c>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s" s="30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="22.25" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="20">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E10" s="21">
+        <v>64</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" ht="22.25" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s" s="20">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E11" s="21">
+        <v>64</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" ht="22.25" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s" s="20">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E12" s="21">
+        <v>128</v>
+      </c>
+      <c r="F12" t="s" s="25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" ht="22.75" customHeight="1">
+      <c r="A13" s="31"/>
+      <c r="B13" t="s" s="19">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="20">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="E13" s="21">
+        <v>10</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" ht="20.75" customHeight="1">
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
+    </row>
+    <row r="15" ht="17" customHeight="1">
+      <c r="A15" t="s" s="8">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s" s="35">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s" s="36">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="36">
+        <v>14</v>
+      </c>
+      <c r="E15" s="37">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" ht="22.25" customHeight="1">
+      <c r="A16" s="26"/>
+      <c r="B16" t="s" s="27">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s" s="28">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s" s="28">
+        <v>10</v>
+      </c>
+      <c r="E16" s="29">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s" s="30">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" ht="22.25" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" t="s" s="27">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s" s="28">
+        <v>14</v>
+      </c>
+      <c r="E17" s="29">
+        <v>128</v>
+      </c>
+      <c r="F17" s="39"/>
+    </row>
+    <row r="18" ht="38.7" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" t="s" s="27">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s" s="28">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s" s="28">
+        <v>10</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s" s="28">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" ht="22.25" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" t="s" s="27">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s" s="28">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s" s="28">
+        <v>14</v>
+      </c>
+      <c r="E19" s="29">
+        <v>16</v>
+      </c>
+      <c r="F19" s="39"/>
+    </row>
+    <row r="20" ht="22.25" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s" s="28">
+        <v>14</v>
+      </c>
+      <c r="E20" s="29">
+        <v>64</v>
+      </c>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" ht="22.25" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" t="s" s="40">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s" s="41">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s" s="41">
+        <v>14</v>
+      </c>
+      <c r="E21" s="42">
+        <v>500</v>
+      </c>
+      <c r="F21" t="s" s="43">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" ht="22" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" t="s" s="44">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s" s="45">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s" s="45">
+        <v>14</v>
+      </c>
+      <c r="E22" s="46">
+        <v>2000</v>
+      </c>
+      <c r="F22" s="47"/>
+    </row>
+    <row r="23" ht="20.75" customHeight="1">
+      <c r="A23" s="48"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" ht="37" customHeight="1">
+      <c r="A24" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s" s="51">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s" s="52">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s" s="52">
+        <v>10</v>
+      </c>
+      <c r="E24" s="53">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="13">
+      <c r="F24" t="s" s="54">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" ht="31.25" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" t="s" s="27">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s" s="28">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s" s="28">
+        <v>63</v>
+      </c>
+      <c r="E25" s="29">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s" s="30">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" ht="31.25" customHeight="1">
+      <c r="A26" s="26"/>
+      <c r="B26" t="s" s="27">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s" s="28">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s" s="28">
+        <v>67</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s" s="30">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" ht="22.25" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" t="s" s="55">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s" s="28">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s" s="28">
         <v>14</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E27" s="29">
+        <v>500</v>
+      </c>
+      <c r="F27" t="s" s="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" ht="31" customHeight="1">
+      <c r="A28" s="56"/>
+      <c r="B28" t="s" s="55">
+        <v>72</v>
+      </c>
+      <c r="C28" t="s" s="28">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s" s="28">
+        <v>10</v>
+      </c>
+      <c r="E28" s="29">
         <v>8</v>
       </c>
-      <c r="F4" t="s" s="15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="22.25" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s" s="17">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s" s="17">
+      <c r="F28" t="s" s="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" ht="34.75" customHeight="1">
+      <c r="A29" s="57"/>
+      <c r="B29" t="s" s="27">
+        <v>75</v>
+      </c>
+      <c r="C29" t="s" s="28">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s" s="28">
+        <v>67</v>
+      </c>
+      <c r="E29" s="29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s" s="30">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" ht="34.75" customHeight="1">
+      <c r="A30" s="57"/>
+      <c r="B30" t="s" s="27">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s" s="28">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s" s="28">
+        <v>67</v>
+      </c>
+      <c r="E30" s="29">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s" s="43">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" ht="20.75" customHeight="1">
+      <c r="A31" s="32"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+    </row>
+    <row r="32" ht="23" customHeight="1">
+      <c r="A32" t="s" s="60">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s" s="61">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s" s="62">
+        <v>83</v>
+      </c>
+      <c r="D32" t="s" s="62">
         <v>10</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E32" s="63">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s" s="64">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" ht="22.75" customHeight="1">
+      <c r="A33" s="65"/>
+      <c r="B33" t="s" s="66">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s" s="67">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s" s="67">
+        <v>14</v>
+      </c>
+      <c r="E33" s="68">
         <v>32</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" ht="22.25" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="17">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="17">
+      <c r="F33" s="69"/>
+    </row>
+    <row r="34" ht="22.75" customHeight="1">
+      <c r="A34" s="70"/>
+      <c r="B34" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s" s="15">
+        <v>88</v>
+      </c>
+      <c r="D34" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="E34" s="16">
+        <v>32</v>
+      </c>
+      <c r="F34" s="71"/>
+    </row>
+    <row r="35" ht="22.25" customHeight="1">
+      <c r="A35" s="23"/>
+      <c r="B35" t="s" s="19">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s" s="20">
+        <v>90</v>
+      </c>
+      <c r="D35" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E35" s="21">
+        <v>500</v>
+      </c>
+      <c r="F35" t="s" s="25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" ht="22.25" customHeight="1">
+      <c r="A36" s="24"/>
+      <c r="B36" t="s" s="19">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s" s="20">
+        <v>93</v>
+      </c>
+      <c r="D36" t="s" s="20">
         <v>10</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E36" s="21">
+        <v>5</v>
+      </c>
+      <c r="F36" s="72">
+        <v>94200</v>
+      </c>
+    </row>
+    <row r="37" ht="22.25" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" t="s" s="19">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s" s="20">
+        <v>95</v>
+      </c>
+      <c r="D37" t="s" s="20">
+        <v>10</v>
+      </c>
+      <c r="E37" s="21">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s" s="25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" ht="22.25" customHeight="1">
+      <c r="A38" s="24"/>
+      <c r="B38" t="s" s="19">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s" s="20">
+        <v>98</v>
+      </c>
+      <c r="D38" t="s" s="20">
+        <v>14</v>
+      </c>
+      <c r="E38" s="21">
         <v>64</v>
       </c>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" ht="22.25" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" t="s" s="16">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s" s="17">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="17">
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" ht="22.25" customHeight="1">
+      <c r="A39" s="24"/>
+      <c r="B39" t="s" s="19">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s" s="20">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s" s="20">
         <v>10</v>
       </c>
-      <c r="E7" s="18">
-        <v>64</v>
-      </c>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" ht="22.25" customHeight="1">
-      <c r="A8" s="11"/>
-      <c r="B8" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s" s="17">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s" s="17">
+      <c r="E39" s="21">
+        <v>4</v>
+      </c>
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" ht="22.25" customHeight="1">
+      <c r="A40" s="31"/>
+      <c r="B40" t="s" s="73">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s" s="74">
+        <v>102</v>
+      </c>
+      <c r="D40" t="s" s="74">
         <v>10</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E40" s="75">
+        <v>4</v>
+      </c>
+      <c r="F40" s="76"/>
+    </row>
+    <row r="41" ht="20.75" customHeight="1">
+      <c r="A41" s="77"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="79"/>
+    </row>
+    <row r="42" ht="22" customHeight="1">
+      <c r="A42" t="s" s="80">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s" s="81">
+        <v>104</v>
+      </c>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" t="s" s="83">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" ht="20.75" customHeight="1">
+      <c r="A43" s="57"/>
+      <c r="B43" t="s" s="84">
+        <v>106</v>
+      </c>
+      <c r="C43" t="s" s="85">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s" s="85">
+        <v>14</v>
+      </c>
+      <c r="E43" s="86">
+        <v>32</v>
+      </c>
+      <c r="F43" s="87"/>
+    </row>
+    <row r="44" ht="20.75" customHeight="1">
+      <c r="A44" s="57"/>
+      <c r="B44" t="s" s="88">
+        <v>108</v>
+      </c>
+      <c r="C44" t="s" s="89">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s" s="89">
+        <v>10</v>
+      </c>
+      <c r="E44" s="90">
+        <v>13</v>
+      </c>
+      <c r="F44" s="91"/>
+    </row>
+    <row r="45" ht="20.75" customHeight="1">
+      <c r="A45" s="57"/>
+      <c r="B45" t="s" s="84">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s" s="85">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s" s="85">
+        <v>10</v>
+      </c>
+      <c r="E45" s="86">
+        <v>8</v>
+      </c>
+      <c r="F45" s="92"/>
+    </row>
+    <row r="46" ht="20.75" customHeight="1">
+      <c r="A46" s="77"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="59"/>
+    </row>
+    <row r="47" ht="20.75" customHeight="1">
+      <c r="A47" t="s" s="80">
+        <v>112</v>
+      </c>
+      <c r="B47" t="s" s="94">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s" s="95">
+        <v>114</v>
+      </c>
+      <c r="D47" t="s" s="95">
+        <v>10</v>
+      </c>
+      <c r="E47" s="96">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s" s="97">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" ht="38.7" customHeight="1">
+      <c r="A48" s="57"/>
+      <c r="B48" t="s" s="98">
+        <v>115</v>
+      </c>
+      <c r="C48" t="s" s="99">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s" s="99">
+        <v>10</v>
+      </c>
+      <c r="E48" s="100"/>
+      <c r="F48" t="s" s="101">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" ht="17" customHeight="1">
+      <c r="A49" s="57"/>
+      <c r="B49" t="s" s="98">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s" s="99">
+        <v>119</v>
+      </c>
+      <c r="D49" t="s" s="99">
+        <v>14</v>
+      </c>
+      <c r="E49" s="102">
+        <v>255</v>
+      </c>
+      <c r="F49" s="101"/>
+    </row>
+    <row r="50" ht="17" customHeight="1">
+      <c r="A50" s="57"/>
+      <c r="B50" t="s" s="98">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s" s="99">
+        <v>121</v>
+      </c>
+      <c r="D50" t="s" s="99">
+        <v>14</v>
+      </c>
+      <c r="E50" s="102">
+        <v>5000</v>
+      </c>
+      <c r="F50" s="101"/>
+    </row>
+    <row r="51" ht="17" customHeight="1">
+      <c r="A51" s="57"/>
+      <c r="B51" t="s" s="103">
+        <v>122</v>
+      </c>
+      <c r="C51" t="s" s="104">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s" s="104">
+        <v>10</v>
+      </c>
+      <c r="E51" s="105">
+        <v>8</v>
+      </c>
+      <c r="F51" s="106"/>
+    </row>
+    <row r="52" ht="31.25" customHeight="1">
+      <c r="A52" s="57"/>
+      <c r="B52" t="s" s="107">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s" s="108">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s" s="108">
+        <v>67</v>
+      </c>
+      <c r="E52" s="109">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s" s="110">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" ht="20.75" customHeight="1">
+      <c r="A53" s="77"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="59"/>
+    </row>
+    <row r="54" ht="20.75" customHeight="1">
+      <c r="A54" t="s" s="80">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s" s="111">
         <v>128</v>
       </c>
-      <c r="F8" t="s" s="20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="22.25" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" t="s" s="16">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s" s="17">
+      <c r="C54" t="s" s="112">
+        <v>129</v>
+      </c>
+      <c r="D54" t="s" s="112">
         <v>10</v>
       </c>
-      <c r="E9" s="18">
-        <v>64</v>
-      </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" t="s" s="16">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s" s="17">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s" s="17">
+      <c r="E54" s="113">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s" s="114">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" ht="20.75" customHeight="1">
+      <c r="A55" s="57"/>
+      <c r="B55" t="s" s="115">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s" s="116">
+        <v>131</v>
+      </c>
+      <c r="D55" t="s" s="116">
+        <v>10</v>
+      </c>
+      <c r="E55" s="117">
+        <v>8</v>
+      </c>
+      <c r="F55" s="118"/>
+    </row>
+    <row r="56" ht="20.75" customHeight="1">
+      <c r="A56" s="57"/>
+      <c r="B56" t="s" s="119">
+        <v>132</v>
+      </c>
+      <c r="C56" t="s" s="120">
+        <v>133</v>
+      </c>
+      <c r="D56" t="s" s="120">
         <v>14</v>
       </c>
-      <c r="E10" s="18">
-        <v>10</v>
-      </c>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" ht="22.25" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" t="s" s="16">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s" s="17">
-        <v>10</v>
-      </c>
-      <c r="E11" s="18">
-        <v>64</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1">
-      <c r="A12" s="21"/>
-      <c r="B12" t="s" s="22">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s" s="23">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s" s="23">
-        <v>10</v>
-      </c>
-      <c r="E12" s="24">
-        <v>128</v>
-      </c>
-      <c r="F12" s="25"/>
-    </row>
-    <row r="13" ht="20.75" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" ht="31.25" customHeight="1">
-      <c r="A14" t="s" s="6">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s" s="29">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s" s="30">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s" s="30">
-        <v>10</v>
-      </c>
-      <c r="E14" s="31">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s" s="32">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" ht="22.25" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" t="s" s="34">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s" s="35">
-        <v>38</v>
-      </c>
-      <c r="D15" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E15" s="36">
-        <v>128</v>
-      </c>
-      <c r="F15" s="37"/>
-    </row>
-    <row r="16" ht="43.25" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" t="s" s="38">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s" s="39">
-        <v>40</v>
-      </c>
-      <c r="D16" t="s" s="39">
-        <v>10</v>
-      </c>
-      <c r="E16" s="40">
-        <v>16</v>
-      </c>
-      <c r="F16" t="s" s="39">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" ht="22.25" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" t="s" s="34">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s" s="35">
-        <v>43</v>
-      </c>
-      <c r="D17" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E17" s="36">
-        <v>64</v>
-      </c>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" ht="31.25" customHeight="1">
-      <c r="A18" s="41"/>
-      <c r="B18" t="s" s="42">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s" s="43">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s" s="43">
-        <v>10</v>
-      </c>
-      <c r="E18" s="44">
-        <v>128</v>
-      </c>
-      <c r="F18" t="s" s="45">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" ht="23" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" t="s" s="47">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s" s="48">
-        <v>48</v>
-      </c>
-      <c r="D19" t="s" s="48">
-        <v>10</v>
-      </c>
-      <c r="E19" s="49">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="50"/>
-    </row>
-    <row r="20" ht="20.75" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" ht="37" customHeight="1">
-      <c r="A21" t="s" s="6">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s" s="51">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s" s="52">
-        <v>51</v>
-      </c>
-      <c r="D21" t="s" s="52">
-        <v>14</v>
-      </c>
-      <c r="E21" s="53">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s" s="54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" ht="31.25" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" t="s" s="55">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s" s="56">
-        <v>54</v>
-      </c>
-      <c r="D22" t="s" s="56">
-        <v>55</v>
-      </c>
-      <c r="E22" s="57">
-        <v>16</v>
-      </c>
-      <c r="F22" t="s" s="58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" ht="31.25" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" t="s" s="55">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s" s="56">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s" s="56">
-        <v>59</v>
-      </c>
-      <c r="E23" s="57">
-        <v>1</v>
-      </c>
-      <c r="F23" s="58"/>
-    </row>
-    <row r="24" ht="22.25" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" t="s" s="59">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s" s="35">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E24" s="36">
-        <v>500</v>
-      </c>
-      <c r="F24" t="s" s="60">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" ht="50.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" t="s" s="59">
+      <c r="E56" s="121">
+        <v>255</v>
+      </c>
+      <c r="F56" s="122"/>
+    </row>
+    <row r="57" ht="20.75" customHeight="1">
+      <c r="A57" s="57"/>
+      <c r="B57" t="s" s="123">
+        <v>134</v>
+      </c>
+      <c r="C57" t="s" s="124">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s" s="124">
         <v>63</v>
       </c>
-      <c r="C25" t="s" s="17">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E25" s="36">
-        <v>64</v>
-      </c>
-      <c r="F25" t="s" s="60">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" ht="65" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" t="s" s="59">
-        <v>66</v>
-      </c>
-      <c r="C26" t="s" s="17">
+      <c r="E57" s="125"/>
+      <c r="F57" s="126"/>
+    </row>
+    <row r="58" ht="31.25" customHeight="1">
+      <c r="A58" s="57"/>
+      <c r="B58" t="s" s="127">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s" s="128">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s" s="128">
         <v>67</v>
       </c>
-      <c r="D26" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E26" s="36">
-        <v>256</v>
-      </c>
-      <c r="F26" t="s" s="60">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" ht="22.25" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" t="s" s="59">
-        <v>68</v>
-      </c>
-      <c r="C27" t="s" s="35">
-        <v>69</v>
-      </c>
-      <c r="D27" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="E27" s="36">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s" s="60">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" ht="22.25" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" t="s" s="59">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s" s="35">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="E28" s="36">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s" s="60">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" ht="22.25" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" t="s" s="34">
-        <v>72</v>
-      </c>
-      <c r="C29" t="s" s="35">
-        <v>73</v>
-      </c>
-      <c r="D29" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="E29" s="36">
-        <v>4</v>
-      </c>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" ht="22.25" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" t="s" s="34">
-        <v>74</v>
-      </c>
-      <c r="C30" t="s" s="35">
-        <v>75</v>
-      </c>
-      <c r="D30" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="E30" s="36">
-        <v>4</v>
-      </c>
-      <c r="F30" s="37"/>
-    </row>
-    <row r="31" ht="22.25" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" t="s" s="34">
-        <v>76</v>
-      </c>
-      <c r="C31" t="s" s="35">
-        <v>77</v>
-      </c>
-      <c r="D31" t="s" s="35">
-        <v>59</v>
-      </c>
-      <c r="E31" s="36">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s" s="60">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" ht="22.25" customHeight="1">
-      <c r="A32" s="11"/>
-      <c r="B32" t="s" s="34">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s" s="35">
-        <v>80</v>
-      </c>
-      <c r="D32" t="s" s="35">
-        <v>59</v>
-      </c>
-      <c r="E32" s="36">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s" s="60">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33" ht="34.75" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" t="s" s="61">
-        <v>81</v>
-      </c>
-      <c r="C33" t="s" s="43">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s" s="43">
-        <v>10</v>
-      </c>
-      <c r="E33" s="62"/>
-      <c r="F33" t="s" s="45">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" ht="20.75" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-    </row>
-    <row r="35" ht="23" customHeight="1">
-      <c r="A35" t="s" s="63">
-        <v>84</v>
-      </c>
-      <c r="B35" t="s" s="64">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s" s="65">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s" s="65">
-        <v>10</v>
-      </c>
-      <c r="E35" s="66">
-        <v>32</v>
-      </c>
-      <c r="F35" s="67"/>
-    </row>
-    <row r="36" ht="22.75" customHeight="1">
-      <c r="A36" s="68"/>
-      <c r="B36" t="s" s="69">
-        <v>87</v>
-      </c>
-      <c r="C36" t="s" s="70">
-        <v>88</v>
-      </c>
-      <c r="D36" t="s" s="70">
-        <v>14</v>
-      </c>
-      <c r="E36" s="71">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s" s="72">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" ht="22.25" customHeight="1">
-      <c r="A37" s="73"/>
-      <c r="B37" t="s" s="34">
-        <v>89</v>
-      </c>
-      <c r="C37" t="s" s="35">
-        <v>90</v>
-      </c>
-      <c r="D37" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E37" s="36">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s" s="60">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" ht="22.25" customHeight="1">
-      <c r="A38" s="11"/>
-      <c r="B38" t="s" s="16">
-        <v>92</v>
-      </c>
-      <c r="C38" t="s" s="17">
-        <v>93</v>
-      </c>
-      <c r="D38" t="s" s="17">
-        <v>14</v>
-      </c>
-      <c r="E38" s="18">
-        <v>5</v>
-      </c>
-      <c r="F38" s="74">
-        <v>94200</v>
-      </c>
-    </row>
-    <row r="39" ht="22.25" customHeight="1">
-      <c r="A39" s="11"/>
-      <c r="B39" t="s" s="34">
-        <v>94</v>
-      </c>
-      <c r="C39" t="s" s="35">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E39" s="36">
-        <v>500</v>
-      </c>
-      <c r="F39" t="s" s="60">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" ht="22.25" customHeight="1">
-      <c r="A40" s="11"/>
-      <c r="B40" t="s" s="34">
-        <v>97</v>
-      </c>
-      <c r="C40" t="s" s="35">
-        <v>98</v>
-      </c>
-      <c r="D40" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="E40" s="18">
-        <v>32</v>
-      </c>
-      <c r="F40" t="s" s="60">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" ht="22.25" customHeight="1">
-      <c r="A41" s="11"/>
-      <c r="B41" t="s" s="34">
-        <v>100</v>
-      </c>
-      <c r="C41" t="s" s="35">
-        <v>101</v>
-      </c>
-      <c r="D41" t="s" s="35">
-        <v>10</v>
-      </c>
-      <c r="E41" s="36">
-        <v>64</v>
-      </c>
-      <c r="F41" s="37"/>
-    </row>
-    <row r="42" ht="22.25" customHeight="1">
-      <c r="A42" s="11"/>
-      <c r="B42" t="s" s="34">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s" s="35">
-        <v>103</v>
-      </c>
-      <c r="D42" t="s" s="35">
-        <v>14</v>
-      </c>
-      <c r="E42" s="36">
-        <v>4</v>
-      </c>
-      <c r="F42" s="37"/>
-    </row>
-    <row r="43" ht="22.25" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" t="s" s="75">
-        <v>104</v>
-      </c>
-      <c r="C43" t="s" s="76">
-        <v>105</v>
-      </c>
-      <c r="D43" t="s" s="76">
-        <v>14</v>
-      </c>
-      <c r="E43" s="77">
-        <v>4</v>
-      </c>
-      <c r="F43" s="78"/>
-    </row>
-    <row r="44" ht="20.75" customHeight="1">
-      <c r="A44" s="79"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-    </row>
-    <row r="45" ht="31.25" customHeight="1">
-      <c r="A45" t="s" s="81">
-        <v>106</v>
-      </c>
-      <c r="B45" t="s" s="82">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s" s="83">
-        <v>108</v>
-      </c>
-      <c r="D45" t="s" s="83">
-        <v>14</v>
-      </c>
-      <c r="E45" s="84">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s" s="85">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" ht="20.75" customHeight="1">
-      <c r="A46" s="46"/>
-      <c r="B46" t="s" s="86">
-        <v>109</v>
-      </c>
-      <c r="C46" t="s" s="87">
-        <v>110</v>
-      </c>
-      <c r="D46" t="s" s="87">
-        <v>14</v>
-      </c>
-      <c r="E46" s="88">
-        <v>8</v>
-      </c>
-      <c r="F46" s="89"/>
-    </row>
-    <row r="47" ht="20.75" customHeight="1">
-      <c r="A47" s="46"/>
-      <c r="B47" t="s" s="55">
-        <v>111</v>
-      </c>
-      <c r="C47" t="s" s="56">
-        <v>112</v>
-      </c>
-      <c r="D47" t="s" s="56">
-        <v>10</v>
-      </c>
-      <c r="E47" s="57">
-        <v>128</v>
-      </c>
-      <c r="F47" t="s" s="58">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" ht="20.75" customHeight="1">
-      <c r="A48" s="46"/>
-      <c r="B48" t="s" s="90">
-        <v>113</v>
-      </c>
-      <c r="C48" t="s" s="43">
-        <v>114</v>
-      </c>
-      <c r="D48" t="s" s="43">
-        <v>10</v>
-      </c>
-      <c r="E48" s="44">
-        <v>64</v>
-      </c>
-      <c r="F48" t="s" s="45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" ht="20.75" customHeight="1">
-      <c r="A49" s="79"/>
-      <c r="B49" s="91"/>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
-    </row>
-    <row r="50" ht="20.75" customHeight="1">
-      <c r="A50" t="s" s="81">
-        <v>115</v>
-      </c>
-      <c r="B50" t="s" s="92">
-        <v>116</v>
-      </c>
-      <c r="C50" t="s" s="93">
-        <v>117</v>
-      </c>
-      <c r="D50" t="s" s="93">
-        <v>14</v>
-      </c>
-      <c r="E50" s="94">
-        <v>13</v>
-      </c>
-      <c r="F50" s="95"/>
-    </row>
-    <row r="51" ht="20.75" customHeight="1">
-      <c r="A51" s="46"/>
-      <c r="B51" t="s" s="92">
-        <v>118</v>
-      </c>
-      <c r="C51" t="s" s="93">
-        <v>119</v>
-      </c>
-      <c r="D51" t="s" s="93">
-        <v>10</v>
-      </c>
-      <c r="E51" s="94">
-        <v>32</v>
-      </c>
-      <c r="F51" s="95"/>
-    </row>
-    <row r="52" ht="31" customHeight="1">
-      <c r="A52" s="46"/>
-      <c r="B52" t="s" s="55">
-        <v>120</v>
-      </c>
-      <c r="C52" t="s" s="56">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s" s="56">
-        <v>59</v>
-      </c>
-      <c r="E52" s="57">
-        <v>1</v>
-      </c>
-      <c r="F52" s="95"/>
-    </row>
-    <row r="53" ht="31" customHeight="1">
-      <c r="A53" s="46"/>
-      <c r="B53" t="s" s="55">
-        <v>122</v>
-      </c>
-      <c r="C53" t="s" s="56">
-        <v>123</v>
-      </c>
-      <c r="D53" t="s" s="56">
-        <v>59</v>
-      </c>
-      <c r="E53" s="57">
-        <v>1</v>
-      </c>
-      <c r="F53" s="95"/>
+      <c r="E58" s="129"/>
+      <c r="F58" t="s" s="130">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A21:A33"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A52"/>
+    <mergeCell ref="A54:A58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/project_other/ArchiveBDD.xlsx
+++ b/project_other/ArchiveBDD.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>数据库信息表</t>
   </si>
@@ -103,6 +103,9 @@
     <t> 使用者所在城市</t>
   </si>
   <si>
+    <t>可以为空</t>
+  </si>
+  <si>
     <t>u_City</t>
   </si>
   <si>
@@ -115,9 +118,6 @@
     <t>使用者的住宅地址</t>
   </si>
   <si>
-    <t>可以为空</t>
-  </si>
-  <si>
     <t>u_ZipCode</t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>预约的ID</t>
   </si>
   <si>
-    <t>Primary key （随机生成的一个13位的数字，不能重复）</t>
+    <t>Primary key</t>
   </si>
   <si>
     <t>r_EndDate</t>
@@ -328,7 +328,7 @@
     <t>rad_ID</t>
   </si>
   <si>
-    <t>Primary key</t>
+    <t>三者关系的ID</t>
   </si>
   <si>
     <t>rad_ArchiveID</t>
@@ -428,6 +428,27 @@
   </si>
   <si>
     <t>0 = 未完成                                                                       1 = 已完成（结束）</t>
+  </si>
+  <si>
+    <t>Relation ：Favorite</t>
+  </si>
+  <si>
+    <t>F_ID</t>
+  </si>
+  <si>
+    <t>此关系ID</t>
+  </si>
+  <si>
+    <t>F_ArchiveID</t>
+  </si>
+  <si>
+    <t>被收藏的文献ID</t>
+  </si>
+  <si>
+    <t>F_UserID</t>
+  </si>
+  <si>
+    <t>收藏者的ID</t>
   </si>
 </sst>
 </file>
@@ -437,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -468,34 +489,45 @@
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="16"/>
+      <color indexed="17"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="18"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="19"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="17"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
-      <u val="single"/>
       <sz val="10"/>
-      <color indexed="16"/>
+      <color indexed="20"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="21"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="19"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="20"/>
+      <color indexed="23"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,36 +542,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="21"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor indexed="16"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -555,8 +575,8 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,8 +586,8 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,147 +599,177 @@
       <top style="thin">
         <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left style="medium">
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="15"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="15"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left style="medium">
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
@@ -729,37 +779,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -767,36 +787,81 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -805,80 +870,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -887,241 +900,222 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="11"/>
+      <top style="medium">
+        <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
+      <left>
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="thin">
+        <color indexed="15"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="15"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1131,7 +1125,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1153,376 +1147,328 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1544,18 +1490,19 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="fffd3c4d"/>
+      <rgbColor rgb="ffa7a7a7"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="fffd3c4e"/>
       <rgbColor rgb="ff00a1fe"/>
-      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff3fb9ff"/>
       <rgbColor rgb="fffc3c4e"/>
       <rgbColor rgb="ff3fb9ff"/>
-      <rgbColor rgb="fff8da56"/>
-      <rgbColor rgb="fff8da57"/>
+      <rgbColor rgb="ffe0e0e0"/>
+      <rgbColor rgb="ffe84e53"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -2617,7 +2564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2631,7 +2578,7 @@
     <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
+    <row r="1" ht="17.15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2641,7 +2588,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" ht="22.75" customHeight="1">
+    <row r="2" ht="18" customHeight="1">
       <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
@@ -2661,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="23" customHeight="1">
+    <row r="3" ht="17.5" customHeight="1">
       <c r="A3" t="s" s="8">
         <v>7</v>
       </c>
@@ -2681,7 +2628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="22.25" customHeight="1">
+    <row r="4" ht="17" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" t="s" s="14">
         <v>12</v>
@@ -2699,880 +2646,973 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="22.25" customHeight="1">
+    <row r="5" ht="17" customHeight="1">
       <c r="A5" s="18"/>
-      <c r="B5" t="s" s="19">
+      <c r="B5" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="20">
+      <c r="C5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="D5" t="s" s="20">
+      <c r="D5" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="16">
         <v>64</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" ht="22.25" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" t="s" s="19">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" ht="17" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" t="s" s="14">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="20">
+      <c r="C6" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="D6" t="s" s="20">
+      <c r="D6" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="16">
         <v>64</v>
       </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" ht="22.25" customHeight="1">
-      <c r="A7" s="24"/>
-      <c r="B7" t="s" s="19">
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" s="21"/>
+      <c r="B7" t="s" s="14">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="20">
+      <c r="C7" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="20">
+      <c r="D7" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>128</v>
       </c>
-      <c r="F7" t="s" s="25">
+      <c r="F7" t="s" s="17">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="22.25" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" t="s" s="19">
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="22"/>
+      <c r="B8" t="s" s="14">
         <v>23</v>
       </c>
-      <c r="C8" t="s" s="20">
+      <c r="C8" t="s" s="15">
         <v>24</v>
       </c>
-      <c r="D8" t="s" s="20">
+      <c r="D8" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>32</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="19"/>
     </row>
     <row r="9" ht="26.7" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" t="s" s="27">
+      <c r="A9" s="22"/>
+      <c r="B9" t="s" s="23">
         <v>25</v>
       </c>
-      <c r="C9" t="s" s="28">
+      <c r="C9" t="s" s="24">
         <v>26</v>
       </c>
-      <c r="D9" t="s" s="28">
+      <c r="D9" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s" s="30">
+      <c r="E9" s="25"/>
+      <c r="F9" t="s" s="26">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="22.25" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" t="s" s="19">
+    <row r="10" ht="17" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" t="s" s="14">
         <v>28</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C10" t="s" s="15">
         <v>29</v>
       </c>
-      <c r="D10" t="s" s="20">
+      <c r="D10" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <v>64</v>
       </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" ht="22.25" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" t="s" s="19">
+      <c r="F10" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="C11" t="s" s="20">
+    </row>
+    <row r="11" ht="17" customHeight="1">
+      <c r="A11" s="21"/>
+      <c r="B11" t="s" s="14">
         <v>31</v>
       </c>
-      <c r="D11" t="s" s="20">
+      <c r="C11" t="s" s="15">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <v>64</v>
       </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" ht="22.25" customHeight="1">
-      <c r="A12" s="24"/>
-      <c r="B12" t="s" s="19">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s" s="20">
+      <c r="F11" t="s" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="1">
+      <c r="A12" s="21"/>
+      <c r="B12" t="s" s="14">
         <v>33</v>
       </c>
-      <c r="D12" t="s" s="20">
+      <c r="C12" t="s" s="15">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="16">
         <v>128</v>
       </c>
-      <c r="F12" t="s" s="25">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" ht="22.75" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" t="s" s="19">
+      <c r="F12" t="s" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="17.5" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" t="s" s="28">
         <v>35</v>
       </c>
-      <c r="C13" t="s" s="20">
+      <c r="C13" t="s" s="29">
         <v>36</v>
       </c>
-      <c r="D13" t="s" s="20">
+      <c r="D13" t="s" s="29">
         <v>10</v>
       </c>
-      <c r="E13" s="21">
-        <v>10</v>
-      </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" ht="20.75" customHeight="1">
+      <c r="E13" s="30"/>
+      <c r="F13" t="s" s="31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="14.7" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
-      <c r="A15" t="s" s="8">
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" ht="14.7" customHeight="1">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" ht="17.5" customHeight="1">
+      <c r="A16" t="s" s="8">
         <v>37</v>
       </c>
-      <c r="B15" t="s" s="35">
+      <c r="B16" t="s" s="36">
         <v>38</v>
       </c>
-      <c r="C15" t="s" s="36">
+      <c r="C16" t="s" s="37">
         <v>39</v>
       </c>
-      <c r="D15" t="s" s="36">
+      <c r="D16" t="s" s="37">
         <v>14</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E16" s="38">
         <v>32</v>
       </c>
-      <c r="F15" t="s" s="38">
+      <c r="F16" t="s" s="39">
         <v>40</v>
       </c>
     </row>
-    <row r="16" ht="22.25" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" t="s" s="27">
+    <row r="17" ht="17" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" t="s" s="23">
         <v>41</v>
       </c>
-      <c r="C16" t="s" s="28">
+      <c r="C17" t="s" s="24">
         <v>42</v>
       </c>
-      <c r="D16" t="s" s="28">
+      <c r="D17" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E17" s="25"/>
+      <c r="F17" t="s" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" t="s" s="23">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s" s="24">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="E18" s="40">
+        <v>128</v>
+      </c>
+      <c r="F18" s="41"/>
+    </row>
+    <row r="19" ht="38.7" customHeight="1">
+      <c r="A19" s="22"/>
+      <c r="B19" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s" s="24">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s" s="24">
+        <v>10</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" t="s" s="26">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" t="s" s="23">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s" s="24">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="E20" s="40">
         <v>16</v>
       </c>
-      <c r="F16" t="s" s="30">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" ht="22.25" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" t="s" s="27">
-        <v>43</v>
-      </c>
-      <c r="C17" t="s" s="28">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s" s="28">
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" t="s" s="23">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s" s="24">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s" s="24">
         <v>14</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E21" s="40">
+        <v>64</v>
+      </c>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s" s="24">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="E22" s="40">
+        <v>500</v>
+      </c>
+      <c r="F22" t="s" s="26">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" ht="17.5" customHeight="1">
+      <c r="A23" s="42"/>
+      <c r="B23" t="s" s="43">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s" s="44">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s" s="44">
+        <v>14</v>
+      </c>
+      <c r="E23" s="45">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="46"/>
+    </row>
+    <row r="24" ht="14.7" customHeight="1">
+      <c r="A24" s="32"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="47"/>
+    </row>
+    <row r="25" ht="14.7" customHeight="1">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="48"/>
+    </row>
+    <row r="26" ht="17.5" customHeight="1">
+      <c r="A26" t="s" s="8">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s" s="49">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s" s="50">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s" s="50">
+        <v>10</v>
+      </c>
+      <c r="E26" s="51"/>
+      <c r="F26" t="s" s="52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" ht="31.25" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" t="s" s="23">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s" s="24">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="E27" s="40">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s" s="26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" ht="31.25" customHeight="1">
+      <c r="A28" s="22"/>
+      <c r="B28" t="s" s="23">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s" s="24">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s" s="24">
+        <v>67</v>
+      </c>
+      <c r="E28" s="40">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s" s="26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="1">
+      <c r="A29" s="22"/>
+      <c r="B29" t="s" s="53">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s" s="54">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s" s="54">
+        <v>14</v>
+      </c>
+      <c r="E29" s="55">
+        <v>500</v>
+      </c>
+      <c r="F29" t="s" s="56">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" ht="31" customHeight="1">
+      <c r="A30" s="57"/>
+      <c r="B30" t="s" s="53">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s" s="54">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s" s="54">
+        <v>10</v>
+      </c>
+      <c r="E30" s="58"/>
+      <c r="F30" t="s" s="56">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" ht="31.25" customHeight="1">
+      <c r="A31" s="59"/>
+      <c r="B31" t="s" s="23">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s" s="24">
+        <v>76</v>
+      </c>
+      <c r="D31" t="s" s="24">
+        <v>67</v>
+      </c>
+      <c r="E31" s="40">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s" s="26">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" ht="31.75" customHeight="1">
+      <c r="A32" s="60"/>
+      <c r="B32" t="s" s="43">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s" s="44">
+        <v>79</v>
+      </c>
+      <c r="D32" t="s" s="44">
+        <v>67</v>
+      </c>
+      <c r="E32" s="45">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s" s="61">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" ht="14.7" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="63"/>
+    </row>
+    <row r="34" ht="14.7" customHeight="1">
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="48"/>
+    </row>
+    <row r="35" ht="17.5" customHeight="1">
+      <c r="A35" t="s" s="64">
+        <v>81</v>
+      </c>
+      <c r="B35" t="s" s="65">
+        <v>82</v>
+      </c>
+      <c r="C35" t="s" s="66">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s" s="66">
+        <v>10</v>
+      </c>
+      <c r="E35" s="67"/>
+      <c r="F35" t="s" s="68">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="1">
+      <c r="A36" s="69"/>
+      <c r="B36" t="s" s="14">
+        <v>85</v>
+      </c>
+      <c r="C36" t="s" s="15">
+        <v>86</v>
+      </c>
+      <c r="D36" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="E36" s="16">
+        <v>32</v>
+      </c>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" ht="17" customHeight="1">
+      <c r="A37" s="18"/>
+      <c r="B37" t="s" s="14">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s" s="15">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="E37" s="16">
+        <v>32</v>
+      </c>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" ht="17" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" t="s" s="14">
+        <v>89</v>
+      </c>
+      <c r="C38" t="s" s="15">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="E38" s="16">
+        <v>500</v>
+      </c>
+      <c r="F38" t="s" s="17">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" ht="17" customHeight="1">
+      <c r="A39" s="21"/>
+      <c r="B39" t="s" s="14">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s" s="15">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E39" s="70"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" ht="17" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" t="s" s="14">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s" s="15">
+        <v>95</v>
+      </c>
+      <c r="D40" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E40" s="70"/>
+      <c r="F40" t="s" s="17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" ht="17" customHeight="1">
+      <c r="A41" s="21"/>
+      <c r="B41" t="s" s="14">
+        <v>97</v>
+      </c>
+      <c r="C41" t="s" s="15">
+        <v>98</v>
+      </c>
+      <c r="D41" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="E41" s="16">
+        <v>64</v>
+      </c>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" ht="17" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" t="s" s="14">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s" s="15">
+        <v>100</v>
+      </c>
+      <c r="D42" t="s" s="15">
+        <v>10</v>
+      </c>
+      <c r="E42" s="70"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" ht="17.5" customHeight="1">
+      <c r="A43" s="27"/>
+      <c r="B43" t="s" s="28">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s" s="29">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s" s="29">
+        <v>10</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="71"/>
+    </row>
+    <row r="44" ht="14.7" customHeight="1">
+      <c r="A44" s="72"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="63"/>
+    </row>
+    <row r="45" ht="14.7" customHeight="1">
+      <c r="A45" s="73"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="48"/>
+    </row>
+    <row r="46" ht="17.5" customHeight="1">
+      <c r="A46" t="s" s="74">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s" s="75">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s" s="76">
+        <v>105</v>
+      </c>
+      <c r="D46" t="s" s="76">
+        <v>10</v>
+      </c>
+      <c r="E46" s="77"/>
+      <c r="F46" t="s" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" ht="17" customHeight="1">
+      <c r="A47" s="59"/>
+      <c r="B47" t="s" s="78">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s" s="79">
+        <v>107</v>
+      </c>
+      <c r="D47" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="E47" s="80">
+        <v>32</v>
+      </c>
+      <c r="F47" s="81"/>
+    </row>
+    <row r="48" ht="17" customHeight="1">
+      <c r="A48" s="59"/>
+      <c r="B48" t="s" s="78">
+        <v>108</v>
+      </c>
+      <c r="C48" t="s" s="79">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s" s="79">
+        <v>10</v>
+      </c>
+      <c r="E48" s="80">
+        <v>13</v>
+      </c>
+      <c r="F48" s="82"/>
+    </row>
+    <row r="49" ht="17.5" customHeight="1">
+      <c r="A49" s="60"/>
+      <c r="B49" t="s" s="83">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s" s="84">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s" s="84">
+        <v>10</v>
+      </c>
+      <c r="E49" s="85">
+        <v>8</v>
+      </c>
+      <c r="F49" s="86"/>
+    </row>
+    <row r="50" ht="14.7" customHeight="1">
+      <c r="A50" s="72"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="63"/>
+    </row>
+    <row r="51" ht="14.7" customHeight="1">
+      <c r="A51" s="73"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="48"/>
+    </row>
+    <row r="52" ht="17.5" customHeight="1">
+      <c r="A52" t="s" s="74">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s" s="87">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s" s="37">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s" s="37">
+        <v>10</v>
+      </c>
+      <c r="E52" s="88"/>
+      <c r="F52" t="s" s="39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" ht="38.7" customHeight="1">
+      <c r="A53" s="59"/>
+      <c r="B53" t="s" s="23">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s" s="24">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s" s="24">
+        <v>10</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" t="s" s="26">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" ht="17" customHeight="1">
+      <c r="A54" s="59"/>
+      <c r="B54" t="s" s="23">
+        <v>118</v>
+      </c>
+      <c r="C54" t="s" s="24">
+        <v>119</v>
+      </c>
+      <c r="D54" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="E54" s="40">
+        <v>255</v>
+      </c>
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" ht="17" customHeight="1">
+      <c r="A55" s="59"/>
+      <c r="B55" t="s" s="23">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s" s="24">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s" s="24">
+        <v>14</v>
+      </c>
+      <c r="E55" s="40">
+        <v>5000</v>
+      </c>
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" ht="16.65" customHeight="1">
+      <c r="A56" s="59"/>
+      <c r="B56" t="s" s="89">
+        <v>122</v>
+      </c>
+      <c r="C56" t="s" s="90">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s" s="90">
+        <v>10</v>
+      </c>
+      <c r="E56" s="91"/>
+      <c r="F56" s="92"/>
+    </row>
+    <row r="57" ht="31.45" customHeight="1">
+      <c r="A57" s="60"/>
+      <c r="B57" t="s" s="93">
+        <v>124</v>
+      </c>
+      <c r="C57" t="s" s="94">
+        <v>125</v>
+      </c>
+      <c r="D57" t="s" s="94">
+        <v>67</v>
+      </c>
+      <c r="E57" s="95">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s" s="96">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" ht="14.7" customHeight="1">
+      <c r="A58" s="72"/>
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="63"/>
+    </row>
+    <row r="59" ht="14.7" customHeight="1">
+      <c r="A59" s="73"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="48"/>
+    </row>
+    <row r="60" ht="17.5" customHeight="1">
+      <c r="A60" t="s" s="74">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s" s="87">
         <v>128</v>
       </c>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" ht="38.7" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" t="s" s="27">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s" s="28">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s" s="28">
+      <c r="C60" t="s" s="37">
+        <v>129</v>
+      </c>
+      <c r="D60" t="s" s="37">
         <v>10</v>
       </c>
-      <c r="E18" s="29">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s" s="28">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" ht="22.25" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" t="s" s="27">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s" s="28">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s" s="28">
+      <c r="E60" s="38">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s" s="39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" ht="17" customHeight="1">
+      <c r="A61" s="59"/>
+      <c r="B61" t="s" s="97">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s" s="98">
+        <v>131</v>
+      </c>
+      <c r="D61" t="s" s="98">
+        <v>10</v>
+      </c>
+      <c r="E61" s="99">
+        <v>8</v>
+      </c>
+      <c r="F61" s="100"/>
+    </row>
+    <row r="62" ht="17" customHeight="1">
+      <c r="A62" s="59"/>
+      <c r="B62" t="s" s="101">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s" s="98">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s" s="98">
         <v>14</v>
       </c>
-      <c r="E19" s="29">
-        <v>16</v>
-      </c>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" ht="22.25" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" t="s" s="27">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s" s="28">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s" s="28">
-        <v>14</v>
-      </c>
-      <c r="E20" s="29">
-        <v>64</v>
-      </c>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" ht="22.25" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" t="s" s="40">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s" s="41">
-        <v>53</v>
-      </c>
-      <c r="D21" t="s" s="41">
-        <v>14</v>
-      </c>
-      <c r="E21" s="42">
-        <v>500</v>
-      </c>
-      <c r="F21" t="s" s="43">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="22" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" t="s" s="44">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s" s="45">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s" s="45">
-        <v>14</v>
-      </c>
-      <c r="E22" s="46">
-        <v>2000</v>
-      </c>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" ht="20.75" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-    </row>
-    <row r="24" ht="37" customHeight="1">
-      <c r="A24" t="s" s="8">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s" s="51">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s" s="52">
-        <v>59</v>
-      </c>
-      <c r="D24" t="s" s="52">
+      <c r="E62" s="99">
+        <v>255</v>
+      </c>
+      <c r="F62" s="100"/>
+    </row>
+    <row r="63" ht="17" customHeight="1">
+      <c r="A63" s="59"/>
+      <c r="B63" t="s" s="23">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s" s="24">
+        <v>135</v>
+      </c>
+      <c r="D63" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="E63" s="25"/>
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" ht="31.75" customHeight="1">
+      <c r="A64" s="60"/>
+      <c r="B64" t="s" s="43">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s" s="44">
+        <v>137</v>
+      </c>
+      <c r="D64" t="s" s="44">
+        <v>67</v>
+      </c>
+      <c r="E64" s="102"/>
+      <c r="F64" t="s" s="61">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" ht="14.7" customHeight="1">
+      <c r="A65" s="72"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="63"/>
+    </row>
+    <row r="66" ht="14.7" customHeight="1">
+      <c r="A66" s="73"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="48"/>
+    </row>
+    <row r="67" ht="17.5" customHeight="1">
+      <c r="A67" t="s" s="74">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s" s="103">
+        <v>140</v>
+      </c>
+      <c r="C67" t="s" s="104">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s" s="104">
         <v>10</v>
       </c>
-      <c r="E24" s="53">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s" s="54">
+      <c r="E67" s="105"/>
+      <c r="F67" t="s" s="106">
         <v>60</v>
       </c>
     </row>
-    <row r="25" ht="31.25" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" t="s" s="27">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s" s="28">
-        <v>62</v>
-      </c>
-      <c r="D25" t="s" s="28">
-        <v>63</v>
-      </c>
-      <c r="E25" s="29">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s" s="30">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" ht="31.25" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" t="s" s="27">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s" s="28">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s" s="28">
-        <v>67</v>
-      </c>
-      <c r="E26" s="29">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s" s="30">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" ht="22.25" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" t="s" s="55">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s" s="28">
-        <v>70</v>
-      </c>
-      <c r="D27" t="s" s="28">
-        <v>14</v>
-      </c>
-      <c r="E27" s="29">
-        <v>500</v>
-      </c>
-      <c r="F27" t="s" s="30">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" ht="31" customHeight="1">
-      <c r="A28" s="56"/>
-      <c r="B28" t="s" s="55">
-        <v>72</v>
-      </c>
-      <c r="C28" t="s" s="28">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s" s="28">
+    <row r="68" ht="17" customHeight="1">
+      <c r="A68" s="59"/>
+      <c r="B68" t="s" s="107">
+        <v>142</v>
+      </c>
+      <c r="C68" t="s" s="108">
+        <v>143</v>
+      </c>
+      <c r="D68" t="s" s="108">
         <v>10</v>
       </c>
-      <c r="E28" s="29">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s" s="30">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" ht="34.75" customHeight="1">
-      <c r="A29" s="57"/>
-      <c r="B29" t="s" s="27">
-        <v>75</v>
-      </c>
-      <c r="C29" t="s" s="28">
-        <v>76</v>
-      </c>
-      <c r="D29" t="s" s="28">
-        <v>67</v>
-      </c>
-      <c r="E29" s="29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s" s="30">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" ht="34.75" customHeight="1">
-      <c r="A30" s="57"/>
-      <c r="B30" t="s" s="27">
-        <v>78</v>
-      </c>
-      <c r="C30" t="s" s="28">
-        <v>79</v>
-      </c>
-      <c r="D30" t="s" s="28">
-        <v>67</v>
-      </c>
-      <c r="E30" s="29">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s" s="43">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" ht="20.75" customHeight="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" ht="23" customHeight="1">
-      <c r="A32" t="s" s="60">
-        <v>81</v>
-      </c>
-      <c r="B32" t="s" s="61">
-        <v>82</v>
-      </c>
-      <c r="C32" t="s" s="62">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s" s="62">
+      <c r="E68" s="109"/>
+      <c r="F68" s="110"/>
+    </row>
+    <row r="69" ht="17.5" customHeight="1">
+      <c r="A69" s="60"/>
+      <c r="B69" t="s" s="111">
+        <v>144</v>
+      </c>
+      <c r="C69" t="s" s="112">
+        <v>145</v>
+      </c>
+      <c r="D69" t="s" s="112">
         <v>10</v>
       </c>
-      <c r="E32" s="63">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s" s="64">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" ht="22.75" customHeight="1">
-      <c r="A33" s="65"/>
-      <c r="B33" t="s" s="66">
-        <v>85</v>
-      </c>
-      <c r="C33" t="s" s="67">
-        <v>86</v>
-      </c>
-      <c r="D33" t="s" s="67">
-        <v>14</v>
-      </c>
-      <c r="E33" s="68">
-        <v>32</v>
-      </c>
-      <c r="F33" s="69"/>
-    </row>
-    <row r="34" ht="22.75" customHeight="1">
-      <c r="A34" s="70"/>
-      <c r="B34" t="s" s="14">
-        <v>87</v>
-      </c>
-      <c r="C34" t="s" s="15">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s" s="15">
-        <v>14</v>
-      </c>
-      <c r="E34" s="16">
-        <v>32</v>
-      </c>
-      <c r="F34" s="71"/>
-    </row>
-    <row r="35" ht="22.25" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" t="s" s="19">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s" s="20">
-        <v>90</v>
-      </c>
-      <c r="D35" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="E35" s="21">
-        <v>500</v>
-      </c>
-      <c r="F35" t="s" s="25">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" ht="22.25" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" t="s" s="19">
-        <v>92</v>
-      </c>
-      <c r="C36" t="s" s="20">
-        <v>93</v>
-      </c>
-      <c r="D36" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="E36" s="21">
-        <v>5</v>
-      </c>
-      <c r="F36" s="72">
-        <v>94200</v>
-      </c>
-    </row>
-    <row r="37" ht="22.25" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" t="s" s="19">
-        <v>94</v>
-      </c>
-      <c r="C37" t="s" s="20">
-        <v>95</v>
-      </c>
-      <c r="D37" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="E37" s="21">
-        <v>32</v>
-      </c>
-      <c r="F37" t="s" s="25">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" ht="22.25" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" t="s" s="19">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s" s="20">
-        <v>98</v>
-      </c>
-      <c r="D38" t="s" s="20">
-        <v>14</v>
-      </c>
-      <c r="E38" s="21">
-        <v>64</v>
-      </c>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" ht="22.25" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" t="s" s="19">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s" s="20">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s" s="20">
-        <v>10</v>
-      </c>
-      <c r="E39" s="21">
-        <v>4</v>
-      </c>
-      <c r="F39" s="22"/>
-    </row>
-    <row r="40" ht="22.25" customHeight="1">
-      <c r="A40" s="31"/>
-      <c r="B40" t="s" s="73">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s" s="74">
-        <v>102</v>
-      </c>
-      <c r="D40" t="s" s="74">
-        <v>10</v>
-      </c>
-      <c r="E40" s="75">
-        <v>4</v>
-      </c>
-      <c r="F40" s="76"/>
-    </row>
-    <row r="41" ht="20.75" customHeight="1">
-      <c r="A41" s="77"/>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
-    </row>
-    <row r="42" ht="22" customHeight="1">
-      <c r="A42" t="s" s="80">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s" s="81">
-        <v>104</v>
-      </c>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" t="s" s="83">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" ht="20.75" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" t="s" s="84">
-        <v>106</v>
-      </c>
-      <c r="C43" t="s" s="85">
-        <v>107</v>
-      </c>
-      <c r="D43" t="s" s="85">
-        <v>14</v>
-      </c>
-      <c r="E43" s="86">
-        <v>32</v>
-      </c>
-      <c r="F43" s="87"/>
-    </row>
-    <row r="44" ht="20.75" customHeight="1">
-      <c r="A44" s="57"/>
-      <c r="B44" t="s" s="88">
-        <v>108</v>
-      </c>
-      <c r="C44" t="s" s="89">
-        <v>109</v>
-      </c>
-      <c r="D44" t="s" s="89">
-        <v>10</v>
-      </c>
-      <c r="E44" s="90">
-        <v>13</v>
-      </c>
-      <c r="F44" s="91"/>
-    </row>
-    <row r="45" ht="20.75" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" t="s" s="84">
-        <v>110</v>
-      </c>
-      <c r="C45" t="s" s="85">
-        <v>111</v>
-      </c>
-      <c r="D45" t="s" s="85">
-        <v>10</v>
-      </c>
-      <c r="E45" s="86">
-        <v>8</v>
-      </c>
-      <c r="F45" s="92"/>
-    </row>
-    <row r="46" ht="20.75" customHeight="1">
-      <c r="A46" s="77"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="59"/>
-    </row>
-    <row r="47" ht="20.75" customHeight="1">
-      <c r="A47" t="s" s="80">
-        <v>112</v>
-      </c>
-      <c r="B47" t="s" s="94">
-        <v>113</v>
-      </c>
-      <c r="C47" t="s" s="95">
-        <v>114</v>
-      </c>
-      <c r="D47" t="s" s="95">
-        <v>10</v>
-      </c>
-      <c r="E47" s="96">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s" s="97">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" ht="38.7" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" t="s" s="98">
-        <v>115</v>
-      </c>
-      <c r="C48" t="s" s="99">
-        <v>116</v>
-      </c>
-      <c r="D48" t="s" s="99">
-        <v>10</v>
-      </c>
-      <c r="E48" s="100"/>
-      <c r="F48" t="s" s="101">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="49" ht="17" customHeight="1">
-      <c r="A49" s="57"/>
-      <c r="B49" t="s" s="98">
-        <v>118</v>
-      </c>
-      <c r="C49" t="s" s="99">
-        <v>119</v>
-      </c>
-      <c r="D49" t="s" s="99">
-        <v>14</v>
-      </c>
-      <c r="E49" s="102">
-        <v>255</v>
-      </c>
-      <c r="F49" s="101"/>
-    </row>
-    <row r="50" ht="17" customHeight="1">
-      <c r="A50" s="57"/>
-      <c r="B50" t="s" s="98">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s" s="99">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s" s="99">
-        <v>14</v>
-      </c>
-      <c r="E50" s="102">
-        <v>5000</v>
-      </c>
-      <c r="F50" s="101"/>
-    </row>
-    <row r="51" ht="17" customHeight="1">
-      <c r="A51" s="57"/>
-      <c r="B51" t="s" s="103">
-        <v>122</v>
-      </c>
-      <c r="C51" t="s" s="104">
-        <v>123</v>
-      </c>
-      <c r="D51" t="s" s="104">
-        <v>10</v>
-      </c>
-      <c r="E51" s="105">
-        <v>8</v>
-      </c>
-      <c r="F51" s="106"/>
-    </row>
-    <row r="52" ht="31.25" customHeight="1">
-      <c r="A52" s="57"/>
-      <c r="B52" t="s" s="107">
-        <v>124</v>
-      </c>
-      <c r="C52" t="s" s="108">
-        <v>125</v>
-      </c>
-      <c r="D52" t="s" s="108">
-        <v>67</v>
-      </c>
-      <c r="E52" s="109">
-        <v>1</v>
-      </c>
-      <c r="F52" t="s" s="110">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" ht="20.75" customHeight="1">
-      <c r="A53" s="77"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="59"/>
-    </row>
-    <row r="54" ht="20.75" customHeight="1">
-      <c r="A54" t="s" s="80">
-        <v>127</v>
-      </c>
-      <c r="B54" t="s" s="111">
-        <v>128</v>
-      </c>
-      <c r="C54" t="s" s="112">
-        <v>129</v>
-      </c>
-      <c r="D54" t="s" s="112">
-        <v>10</v>
-      </c>
-      <c r="E54" s="113">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s" s="114">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" ht="20.75" customHeight="1">
-      <c r="A55" s="57"/>
-      <c r="B55" t="s" s="115">
-        <v>130</v>
-      </c>
-      <c r="C55" t="s" s="116">
-        <v>131</v>
-      </c>
-      <c r="D55" t="s" s="116">
-        <v>10</v>
-      </c>
-      <c r="E55" s="117">
-        <v>8</v>
-      </c>
-      <c r="F55" s="118"/>
-    </row>
-    <row r="56" ht="20.75" customHeight="1">
-      <c r="A56" s="57"/>
-      <c r="B56" t="s" s="119">
-        <v>132</v>
-      </c>
-      <c r="C56" t="s" s="120">
-        <v>133</v>
-      </c>
-      <c r="D56" t="s" s="120">
-        <v>14</v>
-      </c>
-      <c r="E56" s="121">
-        <v>255</v>
-      </c>
-      <c r="F56" s="122"/>
-    </row>
-    <row r="57" ht="20.75" customHeight="1">
-      <c r="A57" s="57"/>
-      <c r="B57" t="s" s="123">
-        <v>134</v>
-      </c>
-      <c r="C57" t="s" s="124">
-        <v>135</v>
-      </c>
-      <c r="D57" t="s" s="124">
-        <v>63</v>
-      </c>
-      <c r="E57" s="125"/>
-      <c r="F57" s="126"/>
-    </row>
-    <row r="58" ht="31.25" customHeight="1">
-      <c r="A58" s="57"/>
-      <c r="B58" t="s" s="127">
-        <v>136</v>
-      </c>
-      <c r="C58" t="s" s="128">
-        <v>137</v>
-      </c>
-      <c r="D58" t="s" s="128">
-        <v>67</v>
-      </c>
-      <c r="E58" s="129"/>
-      <c r="F58" t="s" s="130">
-        <v>138</v>
-      </c>
+      <c r="E69" s="113"/>
+      <c r="F69" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A32:A40"/>
+    <mergeCell ref="A35:A43"/>
     <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A47:A52"/>
-    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="A60:A64"/>
+    <mergeCell ref="A67:A69"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
